--- a/ES_param.xlsx
+++ b/ES_param.xlsx
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,15 +392,156 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>0.25</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3">
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>200000</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>200000</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>320000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>320000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
